--- a/scraping/wikipedia/wikipedia_miasta_polska/data.xlsx
+++ b/scraping/wikipedia/wikipedia_miasta_polska/data.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\NAUKA\Python Nauka\data_science\scraping\wikipedia\wikipedia_miasta_polska\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B35E206-B813-4D62-9640-EDB6ABBD3D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -49,12 +55,12 @@
     <t>Szczecin</t>
   </si>
   <si>
+    <t>Lublin</t>
+  </si>
+  <si>
     <t>Bydgoszcz</t>
   </si>
   <si>
-    <t>Lublin</t>
-  </si>
-  <si>
     <t>Białystok</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>Częstochowa</t>
   </si>
   <si>
+    <t>Rzeszów</t>
+  </si>
+  <si>
     <t>Radom</t>
   </si>
   <si>
@@ -76,24 +85,21 @@
     <t>Sosnowiec</t>
   </si>
   <si>
-    <t>Rzeszów</t>
-  </si>
-  <si>
     <t>Kielce</t>
   </si>
   <si>
     <t>Gliwice</t>
   </si>
   <si>
+    <t>Olsztyn</t>
+  </si>
+  <si>
+    <t>Bielsko-Biała</t>
+  </si>
+  <si>
     <t>Zabrze</t>
   </si>
   <si>
-    <t>Olsztyn</t>
-  </si>
-  <si>
-    <t>Bielsko-Biała</t>
-  </si>
-  <si>
     <t>Bytom</t>
   </si>
   <si>
@@ -115,30 +121,30 @@
     <t>Gorzów Wielkopolski</t>
   </si>
   <si>
+    <t>Dąbrowa Górnicza</t>
+  </si>
+  <si>
     <t>Elbląg</t>
   </si>
   <si>
-    <t>Dąbrowa Górnicza</t>
-  </si>
-  <si>
     <t>Płock</t>
   </si>
   <si>
+    <t>Koszalin</t>
+  </si>
+  <si>
+    <t>Tarnów</t>
+  </si>
+  <si>
+    <t>Włocławek</t>
+  </si>
+  <si>
+    <t>Chorzów</t>
+  </si>
+  <si>
     <t>Wałbrzych</t>
   </si>
   <si>
-    <t>Włocławek</t>
-  </si>
-  <si>
-    <t>Tarnów</t>
-  </si>
-  <si>
-    <t>Chorzów</t>
-  </si>
-  <si>
-    <t>Koszalin</t>
-  </si>
-  <si>
     <t>mazowieckie</t>
   </si>
   <si>
@@ -160,10 +166,10 @@
     <t>zachodniopomorskie</t>
   </si>
   <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
     <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
   </si>
   <si>
     <t>podlaskie</t>
@@ -190,8 +196,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,13 +260,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -298,7 +312,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -332,6 +346,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -366,9 +381,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -541,14 +557,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -562,7 +586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -570,13 +594,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>1860281</v>
+        <v>1861664</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -584,13 +608,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>800653</v>
+        <v>804237</v>
       </c>
       <c r="D3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -598,13 +622,13 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>672929</v>
+        <v>674132</v>
       </c>
       <c r="D4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -612,13 +636,13 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>670642</v>
+        <v>655279</v>
       </c>
       <c r="D5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -626,13 +650,13 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>546859</v>
+        <v>540146</v>
       </c>
       <c r="D6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -640,13 +664,13 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>486022</v>
+        <v>486492</v>
       </c>
       <c r="D7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -654,13 +678,13 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>396168</v>
+        <v>390278</v>
       </c>
       <c r="D8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -668,13 +692,13 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>337666</v>
+        <v>330447</v>
       </c>
       <c r="D9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -682,13 +706,13 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>334681</v>
+        <v>328370</v>
       </c>
       <c r="D10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -696,13 +720,13 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>294242</v>
+        <v>292058</v>
       </c>
       <c r="D11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -710,13 +734,13 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>285711</v>
+        <v>279119</v>
       </c>
       <c r="D12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -724,13 +748,13 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>244969</v>
+        <v>242141</v>
       </c>
       <c r="D13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -738,13 +762,13 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>217530</v>
+        <v>207117</v>
       </c>
       <c r="D14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -752,13 +776,13 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>209296</v>
+        <v>197536</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -766,13 +790,13 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <v>198273</v>
+        <v>196918</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -780,13 +804,13 @@
         <v>19</v>
       </c>
       <c r="C17">
-        <v>197586</v>
+        <v>195263</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -794,13 +818,13 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>195871</v>
+        <v>188151</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -808,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="C19">
-        <v>186894</v>
+        <v>183147</v>
       </c>
       <c r="D19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -822,13 +846,13 @@
         <v>22</v>
       </c>
       <c r="C20">
-        <v>177049</v>
+        <v>170457</v>
       </c>
       <c r="D20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -836,13 +860,13 @@
         <v>23</v>
       </c>
       <c r="C21">
-        <v>170924</v>
+        <v>167844</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -850,13 +874,13 @@
         <v>24</v>
       </c>
       <c r="C22">
-        <v>170225</v>
+        <v>166189</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -864,13 +888,13 @@
         <v>25</v>
       </c>
       <c r="C23">
-        <v>169756</v>
+        <v>154642</v>
       </c>
       <c r="D23" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -878,13 +902,13 @@
         <v>26</v>
       </c>
       <c r="C24">
-        <v>163255</v>
+        <v>148687</v>
       </c>
       <c r="D24" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -892,13 +916,13 @@
         <v>27</v>
       </c>
       <c r="C25">
-        <v>140002</v>
+        <v>139132</v>
       </c>
       <c r="D25" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -906,13 +930,13 @@
         <v>28</v>
       </c>
       <c r="C26">
-        <v>137128</v>
+        <v>131323</v>
       </c>
       <c r="D26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -920,13 +944,13 @@
         <v>29</v>
       </c>
       <c r="C27">
-        <v>136423</v>
+        <v>131062</v>
       </c>
       <c r="D27" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -934,13 +958,13 @@
         <v>30</v>
       </c>
       <c r="C28">
-        <v>127387</v>
+        <v>126300</v>
       </c>
       <c r="D28" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -948,13 +972,13 @@
         <v>31</v>
       </c>
       <c r="C29">
-        <v>126871</v>
+        <v>122605</v>
       </c>
       <c r="D29" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -962,13 +986,13 @@
         <v>32</v>
       </c>
       <c r="C30">
-        <v>119964</v>
+        <v>115847</v>
       </c>
       <c r="D30" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -976,13 +1000,13 @@
         <v>33</v>
       </c>
       <c r="C31">
-        <v>118582</v>
+        <v>114148</v>
       </c>
       <c r="D31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -990,13 +1014,13 @@
         <v>34</v>
       </c>
       <c r="C32">
-        <v>118285</v>
+        <v>113195</v>
       </c>
       <c r="D32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1004,13 +1028,13 @@
         <v>35</v>
       </c>
       <c r="C33">
-        <v>118268</v>
+        <v>111927</v>
       </c>
       <c r="D33" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1018,13 +1042,13 @@
         <v>36</v>
       </c>
       <c r="C34">
-        <v>109971</v>
+        <v>105905</v>
       </c>
       <c r="D34" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1032,13 +1056,13 @@
         <v>37</v>
       </c>
       <c r="C35">
-        <v>108561</v>
+        <v>103515</v>
       </c>
       <c r="D35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1046,13 +1070,13 @@
         <v>38</v>
       </c>
       <c r="C36">
-        <v>107498</v>
+        <v>101450</v>
       </c>
       <c r="D36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1060,13 +1084,13 @@
         <v>39</v>
       </c>
       <c r="C37">
-        <v>106846</v>
+        <v>101184</v>
       </c>
       <c r="D37" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1074,10 +1098,10 @@
         <v>40</v>
       </c>
       <c r="C38">
-        <v>106235</v>
+        <v>101082</v>
       </c>
       <c r="D38" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
